--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>180.194891063446</v>
+        <v>187.6063563333333</v>
       </c>
       <c r="H2">
-        <v>180.194891063446</v>
+        <v>562.819069</v>
       </c>
       <c r="I2">
-        <v>0.4847769442988161</v>
+        <v>0.4593058955083382</v>
       </c>
       <c r="J2">
-        <v>0.4847769442988161</v>
+        <v>0.4593058955083381</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N2">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q2">
-        <v>9465.526764260367</v>
+        <v>10488.7434466858</v>
       </c>
       <c r="R2">
-        <v>9465.526764260367</v>
+        <v>94398.69102017218</v>
       </c>
       <c r="S2">
-        <v>0.3154505936624022</v>
+        <v>0.2945272240265582</v>
       </c>
       <c r="T2">
-        <v>0.3154505936624022</v>
+        <v>0.2945272240265581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>180.194891063446</v>
+        <v>187.6063563333333</v>
       </c>
       <c r="H3">
-        <v>180.194891063446</v>
+        <v>562.819069</v>
       </c>
       <c r="I3">
-        <v>0.4847769442988161</v>
+        <v>0.4593058955083382</v>
       </c>
       <c r="J3">
-        <v>0.4847769442988161</v>
+        <v>0.4593058955083381</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N3">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q3">
-        <v>951.2168976176921</v>
+        <v>1007.572955406881</v>
       </c>
       <c r="R3">
-        <v>951.2168976176921</v>
+        <v>9068.156598661933</v>
       </c>
       <c r="S3">
-        <v>0.03170050040829991</v>
+        <v>0.0282929663661468</v>
       </c>
       <c r="T3">
-        <v>0.03170050040829991</v>
+        <v>0.0282929663661468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>180.194891063446</v>
+        <v>187.6063563333333</v>
       </c>
       <c r="H4">
-        <v>180.194891063446</v>
+        <v>562.819069</v>
       </c>
       <c r="I4">
-        <v>0.4847769442988161</v>
+        <v>0.4593058955083382</v>
       </c>
       <c r="J4">
-        <v>0.4847769442988161</v>
+        <v>0.4593058955083381</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N4">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q4">
-        <v>4129.651980247858</v>
+        <v>4860.547441172367</v>
       </c>
       <c r="R4">
-        <v>4129.651980247858</v>
+        <v>43744.9269705513</v>
       </c>
       <c r="S4">
-        <v>0.137625850228114</v>
+        <v>0.1364857051156332</v>
       </c>
       <c r="T4">
-        <v>0.137625850228114</v>
+        <v>0.1364857051156332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>80.59192147728329</v>
+        <v>80.74609099999999</v>
       </c>
       <c r="H5">
-        <v>80.59192147728329</v>
+        <v>242.238273</v>
       </c>
       <c r="I5">
-        <v>0.216815833114666</v>
+        <v>0.1976860291964598</v>
       </c>
       <c r="J5">
-        <v>0.216815833114666</v>
+        <v>0.1976860291964597</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N5">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q5">
-        <v>4233.444051739512</v>
+        <v>4514.372803642932</v>
       </c>
       <c r="R5">
-        <v>4233.444051739512</v>
+        <v>40629.35523278639</v>
       </c>
       <c r="S5">
-        <v>0.141084851653488</v>
+        <v>0.1267650121138265</v>
       </c>
       <c r="T5">
-        <v>0.141084851653488</v>
+        <v>0.1267650121138265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.59192147728329</v>
+        <v>80.74609099999999</v>
       </c>
       <c r="H6">
-        <v>80.59192147728329</v>
+        <v>242.238273</v>
       </c>
       <c r="I6">
-        <v>0.216815833114666</v>
+        <v>0.1976860291964598</v>
       </c>
       <c r="J6">
-        <v>0.216815833114666</v>
+        <v>0.1976860291964597</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N6">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q6">
-        <v>425.4304717977726</v>
+        <v>433.661093027516</v>
       </c>
       <c r="R6">
-        <v>425.4304717977726</v>
+        <v>3902.949837247645</v>
       </c>
       <c r="S6">
-        <v>0.01417800596131638</v>
+        <v>0.01217734026453621</v>
       </c>
       <c r="T6">
-        <v>0.01417800596131638</v>
+        <v>0.01217734026453621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.59192147728329</v>
+        <v>80.74609099999999</v>
       </c>
       <c r="H7">
-        <v>80.59192147728329</v>
+        <v>242.238273</v>
       </c>
       <c r="I7">
-        <v>0.216815833114666</v>
+        <v>0.1976860291964598</v>
       </c>
       <c r="J7">
-        <v>0.216815833114666</v>
+        <v>0.1976860291964597</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N7">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q7">
-        <v>1846.981266541343</v>
+        <v>2091.98778583702</v>
       </c>
       <c r="R7">
-        <v>1846.981266541343</v>
+        <v>18827.89007253318</v>
       </c>
       <c r="S7">
-        <v>0.06155297549986156</v>
+        <v>0.05874367681809702</v>
       </c>
       <c r="T7">
-        <v>0.06155297549986156</v>
+        <v>0.05874367681809702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.919996503337</v>
+        <v>140.1037866666667</v>
       </c>
       <c r="H8">
-        <v>110.919996503337</v>
+        <v>420.31136</v>
       </c>
       <c r="I8">
-        <v>0.2984072225865179</v>
+        <v>0.3430080752952021</v>
       </c>
       <c r="J8">
-        <v>0.2984072225865179</v>
+        <v>0.343008075295202</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N8">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q8">
-        <v>5826.559173779965</v>
+        <v>7832.957811114241</v>
       </c>
       <c r="R8">
-        <v>5826.559173779965</v>
+        <v>70496.62030002817</v>
       </c>
       <c r="S8">
-        <v>0.1941774183469467</v>
+        <v>0.2199519257717747</v>
       </c>
       <c r="T8">
-        <v>0.1941774183469467</v>
+        <v>0.2199519257717747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.919996503337</v>
+        <v>140.1037866666667</v>
       </c>
       <c r="H9">
-        <v>110.919996503337</v>
+        <v>420.31136</v>
       </c>
       <c r="I9">
-        <v>0.2984072225865179</v>
+        <v>0.3430080752952021</v>
       </c>
       <c r="J9">
-        <v>0.2984072225865179</v>
+        <v>0.343008075295202</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N9">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q9">
-        <v>585.5270054272523</v>
+        <v>752.4520445597868</v>
       </c>
       <c r="R9">
-        <v>585.5270054272523</v>
+        <v>6772.068401038082</v>
       </c>
       <c r="S9">
-        <v>0.01951342445777006</v>
+        <v>0.02112909072700488</v>
       </c>
       <c r="T9">
-        <v>0.01951342445777006</v>
+        <v>0.02112909072700488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>110.919996503337</v>
+        <v>140.1037866666667</v>
       </c>
       <c r="H10">
-        <v>110.919996503337</v>
+        <v>420.31136</v>
       </c>
       <c r="I10">
-        <v>0.2984072225865179</v>
+        <v>0.3430080752952021</v>
       </c>
       <c r="J10">
-        <v>0.2984072225865179</v>
+        <v>0.343008075295202</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N10">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q10">
-        <v>2542.030911674457</v>
+        <v>3629.840241506952</v>
       </c>
       <c r="R10">
-        <v>2542.030911674457</v>
+        <v>32668.56217356256</v>
       </c>
       <c r="S10">
-        <v>0.0847163797818012</v>
+        <v>0.1019270587964225</v>
       </c>
       <c r="T10">
-        <v>0.0847163797818012</v>
+        <v>0.1019270587964224</v>
       </c>
     </row>
   </sheetData>
